--- a/Assets/Resources/Datas/MonsterSkill.xlsx
+++ b/Assets/Resources/Datas/MonsterSkill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Arthur\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26EEDED-5FD1-4205-AEC0-0A2903AC073B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3FBA1A-159D-4A45-8B23-2D556AF7FEC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7050" yWindow="2100" windowWidth="18990" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="1830" windowWidth="23625" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>MonsterSkill</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,30 @@
   </si>
   <si>
     <t>SkillName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActiveType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShortDist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefDirectionChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prompt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiHit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,20 +421,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -423,8 +450,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -437,8 +467,11 @@
       <c r="D3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -451,8 +484,11 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -460,14 +496,52 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>0.2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>0.33</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Datas/MonsterSkill.xlsx
+++ b/Assets/Resources/Datas/MonsterSkill.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Arthur\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3FBA1A-159D-4A45-8B23-2D556AF7FEC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFF62AE-71D8-4354-894F-D9C39529290D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="1830" windowWidth="23625" windowHeight="13530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26505" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>MonsterSkill</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,14 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TestSkill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>시전 타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +97,66 @@
   </si>
   <si>
     <t>MultiHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomDirectionAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선쿨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstCooldown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpperAxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FastStab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SnakeStrongTwoAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SnakeStab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SnakeSlow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShoulderCharge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StunAttack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackJumpHeal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotCollide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LongDist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,40 +482,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="1" max="1" width="23.25" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -468,75 +533,273 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1.5</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0.2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>8</v>
       </c>
       <c r="C7">
-        <v>0.33</v>
+        <v>8</v>
       </c>
       <c r="D7">
+        <v>0.6</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0.6</v>
+      </c>
+      <c r="E9">
+        <v>0.6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E12">
+        <f>35/60</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>0.75</v>
+      </c>
+      <c r="E13">
+        <f>15/60</f>
+        <v>0.25</v>
+      </c>
+      <c r="F13" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>0.7</v>
+      </c>
+      <c r="E15">
+        <v>0.3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>0.3</v>
+      </c>
+      <c r="E16">
+        <v>0.2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
